--- a/data/groupes_pharmacies.xlsx
+++ b/data/groupes_pharmacies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="groupe_1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1228">
   <si>
     <t xml:space="preserve">nom_pharmacie</t>
   </si>
@@ -2080,27 +2080,6 @@
   </si>
   <si>
     <t xml:space="preserve">12.397886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse postale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">1200 Logements</t>
@@ -4395,7 +4374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4405,7 +4384,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
@@ -6592,7 +6571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6602,7 +6581,7 @@
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
@@ -7646,17 +7625,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
@@ -8844,970 +8823,1117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="23.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="55.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="34.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="12.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="4" width="12.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27" t="s">
         <v>652</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>659</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>25360252</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>663</v>
+        <v>655</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>656</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="B3" s="11" t="n">
         <v>62337777</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>668</v>
+      <c r="F3" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G3" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>25488347</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="29" t="s">
-        <v>671</v>
+      <c r="F4" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>664</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>25385236</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>677</v>
+        <v>669</v>
+      </c>
+      <c r="F5" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>670</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B6" s="11" t="n">
         <v>25350717</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="29" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>681</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>682</v>
+        <v>674</v>
+      </c>
+      <c r="F6" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>675</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="27" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B7" s="11" t="n">
         <v>25313141</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>688</v>
+        <v>680</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>681</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B8" s="11" t="n">
         <v>25409376</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>692</v>
+      <c r="F8" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>685</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="27" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B9" s="11" t="n">
         <v>25384491</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="29" t="s">
-        <v>696</v>
+      <c r="F9" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>689</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B10" s="11" t="n">
         <v>25306168</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>702</v>
+        <v>694</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>695</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B11" s="11" t="n">
         <v>25315412</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="29" t="s">
-        <v>706</v>
+      <c r="F11" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>699</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B12" s="11" t="n">
         <v>25316206</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>712</v>
+        <v>704</v>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>705</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="27" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B13" s="11" t="n">
         <v>25340232</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>717</v>
+      <c r="F13" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>710</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B14" s="11" t="n">
         <v>25306641</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>722</v>
+        <v>680</v>
+      </c>
+      <c r="F14" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>715</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B15" s="11" t="n">
         <v>25418154</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="30" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>727</v>
+        <v>719</v>
+      </c>
+      <c r="F15" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>720</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B16" s="11" t="n">
         <v>25318788</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>733</v>
+        <v>725</v>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>726</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B17" s="32" t="n">
         <v>25393440</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="28" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="29" t="s">
-        <v>737</v>
+      <c r="F17" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>730</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B18" s="11" t="n">
         <v>73207787</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="29" t="s">
-        <v>741</v>
+      <c r="F18" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>734</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="B19" s="11" t="n">
         <v>25385742</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>747</v>
+        <v>739</v>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>740</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B20" s="11" t="n">
         <v>25341264</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>751</v>
+        <v>719</v>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>744</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B21" s="11" t="n">
         <v>25408387</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="29" t="s">
-        <v>755</v>
+      <c r="F21" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>748</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B22" s="11" t="n">
         <v>70143932</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="30" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="E22" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>759</v>
+      <c r="F22" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>752</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="27" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B23" s="11" t="n">
         <v>25335867</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E23" s="28"/>
-      <c r="F23" s="29" t="s">
-        <v>764</v>
+      <c r="F23" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>757</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B24" s="11" t="n">
         <v>78836136</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>770</v>
+        <v>762</v>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>763</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="B25" s="11" t="n">
         <v>25652264</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="29" t="s">
-        <v>775</v>
+      <c r="F25" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>768</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B26" s="11" t="n">
         <v>25366841</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="29" t="s">
-        <v>779</v>
+      <c r="F26" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>772</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B27" s="11" t="n">
         <v>25372800</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>784</v>
+        <v>776</v>
+      </c>
+      <c r="F27" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>777</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B28" s="11" t="n">
         <v>25408488</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>790</v>
+        <v>782</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>783</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B29" s="11" t="n">
         <v>25371652</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="28" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="29" t="s">
-        <v>794</v>
+      <c r="F29" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>787</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B30" s="11" t="n">
         <v>25371652</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>791</v>
+      </c>
+      <c r="F30" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B31" s="11" t="n">
         <v>25508148</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>803</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>719</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B32" s="11" t="n">
         <v>25375415</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="28" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>807</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>808</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>800</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B33" s="11" t="n">
         <v>25318648</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>813</v>
+      <c r="F33" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>806</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B34" s="11" t="n">
         <v>25318195</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>819</v>
+        <v>811</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>812</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B35" s="11" t="n">
         <v>25431778</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>824</v>
+        <v>776</v>
+      </c>
+      <c r="F35" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>817</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B36" s="11" t="n">
         <v>70143925</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>829</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>830</v>
+        <v>822</v>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>823</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B37" s="11" t="n">
         <v>25364148</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>834</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>835</v>
+        <v>827</v>
+      </c>
+      <c r="F37" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>828</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B38" s="11" t="n">
         <v>25343942</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>833</v>
+      </c>
+      <c r="F38" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="27" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B39" s="11" t="n">
         <v>25430587</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>846</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>839</v>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="27" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B40" s="11" t="n">
         <v>25315288</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>853</v>
+        <v>845</v>
+      </c>
+      <c r="F40" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>846</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="27" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B41" s="11" t="n">
         <v>25459825</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="28" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="E41" s="28"/>
-      <c r="F41" s="13" t="s">
-        <v>857</v>
+      <c r="F41" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>850</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="27" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B42" s="11" t="n">
         <v>25395208</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="28" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="E42" s="28"/>
-      <c r="F42" s="29" t="s">
-        <v>861</v>
+      <c r="F42" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>854</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B43" s="11" t="n">
         <v>25362015</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="E43" s="12"/>
-      <c r="F43" s="29" t="s">
-        <v>866</v>
+      <c r="F43" s="29" t="n">
+        <v>4</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>859</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B44" s="11" t="n">
         <v>25483047</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>870</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>871</v>
+        <v>863</v>
+      </c>
+      <c r="F44" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>872</v>
-      </c>
+        <v>864</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9865,7 +9991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9875,44 +10001,44 @@
       <selection pane="topLeft" activeCell="A185" activeCellId="0" sqref="A185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.96875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="95.08"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9922,37 +10048,37 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9962,32 +10088,32 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,7 +10123,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10007,37 +10133,37 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10047,7 +10173,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10057,47 +10183,47 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10107,7 +10233,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10117,47 +10243,47 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,7 +10293,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10177,37 +10303,37 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10217,7 +10343,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10227,47 +10353,47 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10277,37 +10403,37 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10317,7 +10443,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10327,42 +10453,42 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10372,37 +10498,37 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10412,7 +10538,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10422,47 +10548,47 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10472,7 +10598,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10482,37 +10608,37 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10522,7 +10648,7 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10532,37 +10658,37 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10572,7 +10698,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10582,47 +10708,47 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10632,37 +10758,37 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10672,7 +10798,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10682,42 +10808,42 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10727,47 +10853,47 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10777,47 +10903,47 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10827,37 +10953,37 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10867,7 +10993,7 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10877,47 +11003,47 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10927,37 +11053,37 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10967,7 +11093,7 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10977,37 +11103,37 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,7 +11143,7 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11027,52 +11153,52 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11082,7 +11208,7 @@
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11092,47 +11218,47 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11142,37 +11268,37 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11182,7 +11308,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11192,37 +11318,37 @@
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11232,7 +11358,7 @@
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11242,47 +11368,47 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11292,47 +11418,47 @@
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11342,47 +11468,47 @@
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11392,37 +11518,37 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,7 +11558,7 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11442,37 +11568,37 @@
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11482,7 +11608,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11492,37 +11618,37 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11532,7 +11658,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11542,37 +11668,37 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11582,7 +11708,7 @@
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11592,37 +11718,37 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11632,7 +11758,7 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11642,47 +11768,47 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11692,37 +11818,37 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11737,42 +11863,42 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11782,37 +11908,37 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11822,7 +11948,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11832,42 +11958,42 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11877,47 +12003,47 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11927,52 +12053,52 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11982,7 +12108,7 @@
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11992,37 +12118,37 @@
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12032,7 +12158,7 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12042,42 +12168,42 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12087,7 +12213,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12097,57 +12223,57 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12157,7 +12283,7 @@
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12167,47 +12293,47 @@
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12217,42 +12343,42 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12262,42 +12388,42 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12307,37 +12433,37 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12347,7 +12473,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12357,37 +12483,37 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12397,7 +12523,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12407,37 +12533,37 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12447,7 +12573,7 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12457,42 +12583,42 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12507,37 +12633,37 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12547,7 +12673,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12557,47 +12683,47 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12607,7 +12733,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12617,42 +12743,42 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12662,52 +12788,52 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12717,37 +12843,37 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12757,7 +12883,7 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12767,37 +12893,37 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12807,7 +12933,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12817,37 +12943,37 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12857,7 +12983,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12867,37 +12993,37 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12907,7 +13033,7 @@
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12917,47 +13043,47 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12967,37 +13093,37 @@
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13007,7 +13133,7 @@
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13017,42 +13143,42 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13062,42 +13188,42 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13107,37 +13233,37 @@
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13147,7 +13273,7 @@
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13157,42 +13283,42 @@
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13202,7 +13328,7 @@
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13212,47 +13338,47 @@
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13262,37 +13388,37 @@
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13302,7 +13428,7 @@
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13312,57 +13438,57 @@
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13372,47 +13498,47 @@
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13422,37 +13548,37 @@
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13462,7 +13588,7 @@
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13472,52 +13598,52 @@
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13527,37 +13653,37 @@
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13567,7 +13693,7 @@
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13577,42 +13703,42 @@
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13622,37 +13748,37 @@
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13662,7 +13788,7 @@
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13672,37 +13798,37 @@
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13712,7 +13838,7 @@
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13722,42 +13848,42 @@
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13767,42 +13893,42 @@
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13812,42 +13938,42 @@
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13857,47 +13983,47 @@
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13907,42 +14033,42 @@
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13952,42 +14078,42 @@
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13997,42 +14123,42 @@
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14042,37 +14168,37 @@
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14092,47 +14218,47 @@
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="0" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="0" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14142,47 +14268,47 @@
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="0" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="0" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="0" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="0" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14192,37 +14318,37 @@
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="0" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="0" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14232,37 +14358,37 @@
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="0" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="0" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14272,7 +14398,7 @@
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="0" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14282,42 +14408,42 @@
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="0" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="0" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="0" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14327,47 +14453,47 @@
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="0" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="0" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="0" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="0" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14377,42 +14503,42 @@
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="0" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="0" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="0" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14422,42 +14548,42 @@
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="0" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="0" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="0" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14467,37 +14593,37 @@
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="0" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="0" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14507,7 +14633,7 @@
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="0" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14517,47 +14643,47 @@
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="0" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="0" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="0" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14567,7 +14693,7 @@
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="0" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14577,37 +14703,37 @@
     </row>
     <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="0" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="0" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14617,7 +14743,7 @@
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="0" t="s">
-        <v>1179</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14627,47 +14753,47 @@
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="0" t="s">
-        <v>1180</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="0" t="s">
-        <v>1181</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="0" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="0" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14677,47 +14803,47 @@
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="0" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="0" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="0" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="0" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14727,37 +14853,37 @@
     </row>
     <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="0" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="0" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14767,7 +14893,7 @@
     </row>
     <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="0" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14777,17 +14903,17 @@
     </row>
     <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="0" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14797,32 +14923,32 @@
     </row>
     <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="0" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="0" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14832,37 +14958,37 @@
     </row>
     <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="0" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="0" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14872,7 +14998,7 @@
     </row>
     <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="0" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14882,47 +15008,47 @@
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="0" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="0" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="0" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14932,32 +15058,32 @@
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="0" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1131" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14967,7 +15093,7 @@
     </row>
     <row r="1133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1133" s="0" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14977,37 +15103,37 @@
     </row>
     <row r="1135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1135" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1136" s="0" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1138" s="0" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1139" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1140" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1141" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1142" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15017,7 +15143,7 @@
     </row>
     <row r="1144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1144" s="0" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15027,37 +15153,37 @@
     </row>
     <row r="1146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1146" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1147" s="0" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1149" s="0" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1150" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1151" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1152" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1153" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15067,7 +15193,7 @@
     </row>
     <row r="1155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1155" s="0" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15077,47 +15203,47 @@
     </row>
     <row r="1157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1157" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1158" s="0" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1160" s="0" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1161" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1162" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1163" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1164" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1165" s="0" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
     </row>
     <row r="1166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1166" s="0" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15127,47 +15253,47 @@
     </row>
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1168" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1169" s="0" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1171" s="0" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1172" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1173" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1174" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1175" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1176" s="0" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1177" s="0" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15177,57 +15303,57 @@
     </row>
     <row r="1179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1179" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1180" s="0" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1181" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1182" s="0" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1185" s="0" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1186" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1187" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1188" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1189" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1190" s="0" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1191" s="0" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15237,42 +15363,42 @@
     </row>
     <row r="1193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1193" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1194" s="0" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1196" s="0" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1197" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1198" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1199" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1200" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1201" s="0" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15282,37 +15408,37 @@
     </row>
     <row r="1203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1203" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1204" s="0" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1206" s="0" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1207" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1208" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1209" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1210" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15322,7 +15448,7 @@
     </row>
     <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1212" s="0" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15332,42 +15458,42 @@
     </row>
     <row r="1214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1214" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="0" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="0" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="0" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15377,7 +15503,7 @@
     </row>
     <row r="1224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="0" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15387,47 +15513,47 @@
     </row>
     <row r="1226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="0" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="0" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="1229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="0" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="0" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15447,37 +15573,37 @@
     </row>
     <row r="1240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="0" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="0" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15487,7 +15613,7 @@
     </row>
     <row r="1249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="0" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15497,42 +15623,42 @@
     </row>
     <row r="1251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1252" s="0" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="0" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1257" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1259" s="0" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="1260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15542,37 +15668,37 @@
     </row>
     <row r="1261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1262" s="0" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1264" s="0" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="0" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="0" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="0" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
     </row>
     <row r="1268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="0" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15582,7 +15708,7 @@
     </row>
     <row r="1270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="0" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>
